--- a/donneeImp.xlsx
+++ b/donneeImp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pa44ulq\Desktop\git\GesProj2-Imprimante-AGM\Alessio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pa44ulq\Desktop\git\GesProj2-Imprimante-AGM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F287BA-5792-44EB-8461-27CA9D75B2B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C8DEFA-FB35-440A-9934-A6220D0DBB47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11385" xr2:uid="{30F15DB1-A129-475C-ADF3-F4D349643423}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30F15DB1-A129-475C-ADF3-F4D349643423}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>idImp</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>A3, A4, A5, B5, Lettre</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -465,15 +468,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BFADE4-A4EB-4140-9260-BB0747CFEAE7}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,8 +522,11 @@
       <c r="O1" t="s">
         <v>9</v>
       </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="37.5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:16" ht="37.5" x14ac:dyDescent="0.5">
       <c r="B2">
         <v>193</v>
       </c>
@@ -563,8 +569,11 @@
       <c r="O2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" ht="29.25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="29.25" x14ac:dyDescent="0.4">
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
